--- a/paper/LJ/实验.xlsx
+++ b/paper/LJ/实验.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/YHB/github/T2LP/paper/LJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05EF3D-5C58-0D47-A46B-0F266D4BC62E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FCAECD-D854-D54F-9417-4BB7405317A4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27560" windowHeight="17040" activeTab="2" xr2:uid="{E1CA46C9-248B-6A49-B958-D23816A5158E}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="27560" windowHeight="17040" activeTab="4" xr2:uid="{E1CA46C9-248B-6A49-B958-D23816A5158E}"/>
   </bookViews>
   <sheets>
     <sheet name="测试集数量" sheetId="1" r:id="rId1"/>
-    <sheet name="Wiki" sheetId="2" r:id="rId2"/>
-    <sheet name="Yago" sheetId="3" r:id="rId3"/>
+    <sheet name="Wiki_entity" sheetId="2" r:id="rId2"/>
+    <sheet name="Wiki_relation" sheetId="4" r:id="rId3"/>
+    <sheet name="Yago_entity" sheetId="3" r:id="rId4"/>
+    <sheet name="Yago_relation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>wiki</t>
   </si>
@@ -716,7 +718,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -753,22 +755,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="12">
-        <v>15.27</v>
+        <v>10.37</v>
       </c>
       <c r="C2" s="12">
-        <v>13.02</v>
+        <v>5.05</v>
       </c>
       <c r="D2" s="12">
-        <v>15.37</v>
+        <v>14.53</v>
       </c>
       <c r="E2" s="12">
-        <v>15.22</v>
+        <v>16.77</v>
       </c>
       <c r="F2" s="12">
-        <v>22.19</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="G2" s="12">
-        <v>26.37</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -776,22 +778,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="12">
-        <v>18.41</v>
+        <v>9.86</v>
       </c>
       <c r="C3" s="12">
-        <v>15.62</v>
+        <v>7.25</v>
       </c>
       <c r="D3" s="12">
-        <v>19.79</v>
+        <v>10.3</v>
       </c>
       <c r="E3" s="12">
-        <v>21.62</v>
+        <v>16.28</v>
       </c>
       <c r="F3" s="12">
-        <v>27.73</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="G3" s="12">
-        <v>30.67</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -799,22 +801,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="12">
-        <v>26.31</v>
+        <v>11.22</v>
       </c>
       <c r="C4" s="12">
-        <v>18.850000000000001</v>
+        <v>5.37</v>
       </c>
       <c r="D4" s="12">
-        <v>20.74</v>
+        <v>14.09</v>
       </c>
       <c r="E4" s="12">
-        <v>26.39</v>
+        <v>17.23</v>
       </c>
       <c r="F4" s="12">
-        <v>27.91</v>
+        <v>19.64</v>
       </c>
       <c r="G4" s="12">
-        <v>28.5</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -822,22 +824,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="12">
-        <v>30.19</v>
-      </c>
-      <c r="C5" s="12">
-        <v>25.77</v>
-      </c>
-      <c r="D5" s="12">
-        <v>30.12</v>
+        <v>28.75</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20.66</v>
+      </c>
+      <c r="D5" s="13">
+        <v>24.58</v>
       </c>
       <c r="E5" s="12">
-        <v>38.76</v>
+        <v>30.01</v>
       </c>
       <c r="F5" s="12">
-        <v>39.01</v>
+        <v>35.75</v>
       </c>
       <c r="G5" s="12">
-        <v>40.1</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -845,22 +847,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="12">
-        <v>41.35</v>
+        <v>20.64</v>
       </c>
       <c r="C6" s="12">
-        <v>39.979999999999997</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="D6" s="12">
-        <v>41.75</v>
-      </c>
-      <c r="E6" s="12">
-        <v>47.66</v>
+        <v>23.25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>36.58</v>
       </c>
       <c r="F6" s="12">
-        <v>48.01</v>
-      </c>
-      <c r="G6" s="12">
-        <v>48.35</v>
+        <v>38.74</v>
+      </c>
+      <c r="G6" s="14">
+        <v>41.88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -868,22 +870,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="13">
-        <v>50.86</v>
-      </c>
-      <c r="C7" s="13">
-        <v>47.41</v>
-      </c>
-      <c r="D7" s="13">
-        <v>49.62</v>
-      </c>
-      <c r="E7" s="13">
-        <v>52.6</v>
+        <v>30.73</v>
+      </c>
+      <c r="C7" s="14">
+        <v>19.36</v>
+      </c>
+      <c r="D7" s="14">
+        <v>24.01</v>
+      </c>
+      <c r="E7" s="14">
+        <v>33.479999999999997</v>
       </c>
       <c r="F7" s="13">
-        <v>53.39</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="G7" s="13">
-        <v>53.42</v>
+        <v>43.04</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -901,10 +903,196 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D4770-3056-0341-AB7A-43D428DDC2B5}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>15.27</v>
+      </c>
+      <c r="C2" s="12">
+        <v>13.02</v>
+      </c>
+      <c r="D2" s="12">
+        <v>15.37</v>
+      </c>
+      <c r="E2" s="12">
+        <v>17.22</v>
+      </c>
+      <c r="F2" s="12">
+        <v>22.19</v>
+      </c>
+      <c r="G2" s="12">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12">
+        <v>18.41</v>
+      </c>
+      <c r="C3" s="12">
+        <v>15.62</v>
+      </c>
+      <c r="D3" s="12">
+        <v>19.79</v>
+      </c>
+      <c r="E3" s="12">
+        <v>21.62</v>
+      </c>
+      <c r="F3" s="12">
+        <v>27.73</v>
+      </c>
+      <c r="G3" s="12">
+        <v>30.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="C4" s="12">
+        <v>12.85</v>
+      </c>
+      <c r="D4" s="12">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="E4" s="12">
+        <v>25.39</v>
+      </c>
+      <c r="F4" s="12">
+        <v>29.91</v>
+      </c>
+      <c r="G4" s="12">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12">
+        <v>30.19</v>
+      </c>
+      <c r="C5" s="12">
+        <v>25.77</v>
+      </c>
+      <c r="D5" s="12">
+        <v>30.12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>38.76</v>
+      </c>
+      <c r="F5" s="12">
+        <v>42.01</v>
+      </c>
+      <c r="G5" s="12">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12">
+        <v>31.35</v>
+      </c>
+      <c r="C6" s="12">
+        <v>24.98</v>
+      </c>
+      <c r="D6" s="12">
+        <v>31.75</v>
+      </c>
+      <c r="E6" s="12">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="F6" s="12">
+        <v>48.01</v>
+      </c>
+      <c r="G6" s="12">
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13">
+        <v>50.86</v>
+      </c>
+      <c r="C7" s="13">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="D7" s="13">
+        <v>49.62</v>
+      </c>
+      <c r="E7" s="13">
+        <v>52.6</v>
+      </c>
+      <c r="F7" s="13">
+        <v>63.39</v>
+      </c>
+      <c r="G7" s="13">
+        <v>68.42</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{C60D8FED-3E88-AD4D-8892-092A30E86599}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{D11D2D09-E6FD-5F48-9214-AC80B8696BC3}"/>
+    <hyperlink ref="E1" r:id="rId3" xr:uid="{601173CE-993D-5D4F-AAE9-6B75DB8131C9}"/>
+    <hyperlink ref="G1" r:id="rId4" xr:uid="{37950B33-374F-6D4F-9470-763695B35108}"/>
+    <hyperlink ref="F1" r:id="rId5" xr:uid="{26EA1461-1520-504E-AA85-E22E72C1EF78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4D2ABD-BB2A-9041-9A14-A513910F66DB}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1010,22 +1198,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>42.35</v>
-      </c>
-      <c r="C5">
-        <v>21.55</v>
+        <v>44.35</v>
+      </c>
+      <c r="C5" s="6">
+        <v>31.55</v>
       </c>
       <c r="D5" s="12">
-        <v>28.66</v>
+        <v>48.66</v>
       </c>
       <c r="E5" s="12">
-        <v>37.5</v>
-      </c>
-      <c r="F5" s="12">
-        <v>48.72</v>
+        <v>57.5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>68.72</v>
       </c>
       <c r="G5">
-        <v>49.94</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1033,22 +1221,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>58.32</v>
-      </c>
-      <c r="C6" s="6">
-        <v>55.06</v>
-      </c>
-      <c r="D6" s="13">
-        <v>57.77</v>
+        <v>48.32</v>
+      </c>
+      <c r="C6" s="8">
+        <v>25.06</v>
+      </c>
+      <c r="D6" s="14">
+        <v>48.77</v>
       </c>
       <c r="E6" s="12">
-        <v>60.18</v>
+        <v>50.18</v>
       </c>
       <c r="F6" s="12">
         <v>62.01</v>
       </c>
       <c r="G6">
-        <v>62.48</v>
+        <v>66.48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,22 +1244,22 @@
         <v>15</v>
       </c>
       <c r="B7" s="6">
-        <v>59.75</v>
+        <v>50.75</v>
       </c>
       <c r="C7" s="8">
-        <v>49.18</v>
-      </c>
-      <c r="D7" s="14">
-        <v>53.05</v>
+        <v>30.18</v>
+      </c>
+      <c r="D7" s="13">
+        <v>51.05</v>
       </c>
       <c r="E7" s="13">
-        <v>64.78</v>
-      </c>
-      <c r="F7" s="13">
+        <v>54.78</v>
+      </c>
+      <c r="F7" s="14">
         <v>66.09</v>
       </c>
       <c r="G7" s="6">
-        <v>67.45</v>
+        <v>71.45</v>
       </c>
     </row>
   </sheetData>
@@ -1085,4 +1273,144 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F8B8-309E-6B45-A80D-FFCCF8511D16}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>43.23</v>
+      </c>
+      <c r="C2">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43.91</v>
+      </c>
+      <c r="E2" s="12">
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="C3">
+        <v>13.68</v>
+      </c>
+      <c r="D3" s="12">
+        <v>38.32</v>
+      </c>
+      <c r="E3" s="12">
+        <v>41.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>41.69</v>
+      </c>
+      <c r="C4">
+        <v>21.22</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42.74</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>52.35</v>
+      </c>
+      <c r="C5">
+        <v>27.55</v>
+      </c>
+      <c r="D5" s="12">
+        <v>58.66</v>
+      </c>
+      <c r="E5" s="12">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>48.32</v>
+      </c>
+      <c r="C6" s="8">
+        <v>25.06</v>
+      </c>
+      <c r="D6" s="14">
+        <v>49.77</v>
+      </c>
+      <c r="E6" s="12">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>63.75</v>
+      </c>
+      <c r="C7" s="6">
+        <v>33.18</v>
+      </c>
+      <c r="D7" s="13">
+        <v>63.05</v>
+      </c>
+      <c r="E7" s="13">
+        <v>74.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{19D66690-F4E3-DA4B-A59D-A021E1F2F15C}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{C30C920D-984F-6E45-9092-2E35E6E9F086}"/>
+    <hyperlink ref="E1" r:id="rId3" xr:uid="{2559B744-7195-1348-853F-F0F47CCCC1F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>